--- a/Unit9 Integer Optimization/ORscheduling.xlsx
+++ b/Unit9 Integer Optimization/ORscheduling.xlsx
@@ -1,15 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Rspace\MIT_AE\Unit9 Integer Optimization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5580" yWindow="0" windowWidth="15300" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$24:$F$28</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$B$24:$F$28</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$B$24:$F$28</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$B$24:$F$28</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$B$24:$F$28</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Sheet1!$B$29:$F$29</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Sheet1!$I$24:$I$28</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Sheet1!$I$24:$I$28</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Sheet1!$K$24:$K$28</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">8</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$31</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$B$7:$F$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$N$7:$R$11</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">integer</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet1!$H$7:$L$11</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">10</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Sheet1!$C$15:$C$19</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">Sheet1!$B$15:$B$19</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">Sheet1!$H$15:$H$19</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>OR Scheduling</t>
   </si>
@@ -109,13 +168,25 @@
   </si>
   <si>
     <t>Departmental Targets</t>
+  </si>
+  <si>
+    <t>Total Ors each day</t>
+  </si>
+  <si>
+    <t>Total Ors each week</t>
+  </si>
+  <si>
+    <t>Total hours each week</t>
+  </si>
+  <si>
+    <t>% of target</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,6 +196,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -299,10 +377,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -374,9 +453,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -386,12 +462,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -719,17 +844,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="18" width="5.33203125" customWidth="1"/>
+    <col min="2" max="12" width="5.375" customWidth="1"/>
+    <col min="13" max="13" width="6.75" customWidth="1"/>
+    <col min="14" max="18" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -752,7 +879,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -773,7 +900,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -796,7 +923,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -817,7 +944,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>2</v>
       </c>
@@ -844,7 +971,7 @@
       <c r="R5" s="28"/>
       <c r="S5" s="28"/>
     </row>
-    <row r="6" spans="1:19" ht="16" thickBot="1">
+    <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -895,7 +1022,7 @@
       </c>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -932,23 +1059,23 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1001,7 +1128,7 @@
       </c>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1054,7 +1181,7 @@
       </c>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1107,7 +1234,7 @@
       </c>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="16" thickBot="1">
+    <row r="11" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1128,19 +1255,19 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L11" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="10">
@@ -1160,7 +1287,7 @@
       </c>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1181,7 +1308,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>15</v>
       </c>
@@ -1206,7 +1333,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="16" thickBot="1">
+    <row r="14" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>17</v>
@@ -1231,7 +1358,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1260,7 +1387,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1289,7 +1416,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1318,7 +1445,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1347,7 +1474,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" ht="16" thickBot="1">
+    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1376,7 +1503,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1397,7 +1524,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1420,7 +1547,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1441,7 +1568,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" ht="16" thickBot="1">
+    <row r="23" spans="1:19" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>5</v>
@@ -1460,11 +1587,17 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="M23" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -1472,32 +1605,41 @@
       <c r="R23" s="2"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="17">
         <v>0</v>
       </c>
       <c r="E24" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="2">
+        <f>SUM(B24:F24)</f>
+        <v>4</v>
+      </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2">
+        <f>8*I24</f>
+        <v>32</v>
+      </c>
       <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="M24" s="29">
+        <f>K24/H15</f>
+        <v>0.81218274111675126</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -1505,32 +1647,41 @@
       <c r="R24" s="2"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="27">
+        <f t="shared" ref="I25:I28" si="0">SUM(B25:F25)</f>
+        <v>14</v>
+      </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="27">
+        <f t="shared" ref="K25:K28" si="1">8*I25</f>
+        <v>112</v>
+      </c>
       <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="M25" s="29">
+        <f t="shared" ref="M25:M28" si="2">K25/H16</f>
+        <v>0.95400340715502552</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -1538,7 +1689,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1546,24 +1697,33 @@
         <v>0</v>
       </c>
       <c r="C26" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="20">
         <v>0</v>
       </c>
       <c r="E26" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="21">
         <v>0</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="27">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="M26" s="29">
+        <f t="shared" si="2"/>
+        <v>0.8040201005025126</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -1571,32 +1731,41 @@
       <c r="R26" s="2"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="20">
         <v>0</v>
       </c>
       <c r="E27" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="21">
         <v>0</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="I27" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="27">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
       <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="M27" s="29">
+        <f t="shared" si="2"/>
+        <v>0.9125475285171103</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -1604,32 +1773,41 @@
       <c r="R27" s="2"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" ht="16" thickBot="1">
+    <row r="28" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C28" s="23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D28" s="23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F28" s="24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="27">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
       <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="M28" s="29">
+        <f t="shared" si="2"/>
+        <v>0.97354497354497349</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -1637,13 +1815,30 @@
       <c r="R28" s="2"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="2"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="26">
+        <f>SUM(B24:B28)</f>
+        <v>9</v>
+      </c>
+      <c r="C29" s="26">
+        <f t="shared" ref="C29:F29" si="3">SUM(C24:C28)</f>
+        <v>10</v>
+      </c>
+      <c r="D29" s="26">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="E29" s="26">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="F29" s="26">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1658,7 +1853,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" ht="16" thickBot="1">
+    <row r="30" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1679,11 +1874,14 @@
       <c r="R30" s="2"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" ht="16" thickBot="1">
+    <row r="31" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="31">
+        <f>SUM(M24:M28)</f>
+        <v>4.4562987508363729</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1702,9 +1900,9 @@
       <c r="R31" s="2"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1723,7 +1921,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -1746,8 +1944,8 @@
       <c r="R33" s="2"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="26" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="2"/>
@@ -1769,8 +1967,8 @@
       <c r="R34" s="2"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19">
-      <c r="A35" s="26" t="s">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="2"/>
@@ -1792,8 +1990,8 @@
       <c r="R35" s="2"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="26" t="s">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="2"/>
@@ -1815,8 +2013,8 @@
       <c r="R36" s="2"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="26" t="s">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="2"/>
@@ -1838,8 +2036,8 @@
       <c r="R37" s="2"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19">
-      <c r="A38" s="26" t="s">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="2"/>
@@ -1861,8 +2059,8 @@
       <c r="R38" s="2"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19">
-      <c r="A39" s="26" t="s">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="2"/>
@@ -1884,8 +2082,8 @@
       <c r="R39" s="2"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19">
-      <c r="A40" s="26" t="s">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B40" s="2"/>
@@ -1907,8 +2105,8 @@
       <c r="R40" s="2"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19">
-      <c r="A41" s="26" t="s">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="2"/>
